--- a/results.xlsx
+++ b/results.xlsx
@@ -28045,7 +28045,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
